--- a/tests/inventories/Digital Production Hub Inventory_Usual.xlsx
+++ b/tests/inventories/Digital Production Hub Inventory_Usual.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amhan\Documents\GitHub\hub-audit\tests\inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahanson\Documents\GitHub\hub-audit\tests\inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971D2E9D-8F98-479C-965A-7C5EC0021E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C610E-C594-406D-BE6B-27B0C157354A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="4530" windowWidth="19695" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hargrett" sheetId="8" r:id="rId1"/>
     <sheet name="MAGIL_GGP" sheetId="12" r:id="rId2"/>
     <sheet name="SCL Imaging Lab" sheetId="10" r:id="rId3"/>
+    <sheet name="Examples" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hargrett!$A$1:$G$4</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>Share (required)</t>
   </si>
@@ -151,6 +152,15 @@
   </si>
   <si>
     <t>Legislative docs</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>E. X. Ample</t>
+  </si>
+  <si>
+    <t>Info</t>
   </si>
 </sst>
 </file>
@@ -258,9 +268,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,7 +308,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -404,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -546,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,17 +574,17 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="78.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="78.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43.40625" customWidth="1"/>
+    <col min="6" max="6" width="57.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="118" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -620,7 +630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -641,7 +651,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -658,7 +668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -699,22 +709,22 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="72.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43.40625" customWidth="1"/>
+    <col min="6" max="6" width="57.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -760,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -805,17 +815,17 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="72.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43.40625" customWidth="1"/>
+    <col min="6" max="6" width="57.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -861,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -878,7 +888,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -895,579 +905,579 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B19" s="5"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.75">
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.75">
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.75">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.75">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.75">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B25" s="6"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B26" s="6"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B27" s="6"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B28" s="6"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B29" s="6"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B30" s="6"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B31" s="6"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B32" s="6"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B33" s="6"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B34" s="6"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B35" s="6"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B36" s="6"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B37" s="6"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B38" s="6"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B39" s="6"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B40" s="6"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B41" s="6"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B42" s="6"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B54" s="6"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B55" s="6"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B56" s="6"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B57" s="6"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B58" s="6"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B59" s="6"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B60" s="6"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B61" s="6"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B62" s="6"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B65" s="6"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B66" s="6"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B67" s="6"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B68" s="6"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B69" s="6"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B70" s="6"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B71" s="6"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B72" s="6"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B73" s="6"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B74" s="6"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B75" s="6"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B76" s="6"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B80" s="6"/>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B81" s="6"/>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B82" s="6"/>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B83" s="6"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B84" s="6"/>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B85" s="6"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B86" s="6"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B87" s="6"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B88" s="6"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B89" s="6"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B90" s="6"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B91" s="6"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B92" s="6"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B93" s="6"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B94" s="6"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B95" s="6"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B96" s="6"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B97" s="6"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B98" s="6"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B100" s="6"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.75">
       <c r="E104" s="9"/>
     </row>
-    <row r="105" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.75">
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E107" s="4"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B109" s="6"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B110" s="6"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B111" s="6"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B112" s="6"/>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B113" s="6"/>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B114" s="6"/>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B115" s="6"/>
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B116" s="6"/>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B117" s="6"/>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B118" s="6"/>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B119" s="6"/>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B120" s="6"/>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B121" s="6"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B122" s="6"/>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B123" s="6"/>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B124" s="6"/>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B125" s="6"/>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B126" s="6"/>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B127" s="6"/>
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B128" s="6"/>
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B129" s="6"/>
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B130" s="6"/>
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B131" s="6"/>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B132" s="6"/>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B133" s="6"/>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B134" s="6"/>
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B135" s="6"/>
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B136" s="6"/>
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B137" s="6"/>
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.75">
       <c r="E139" s="4"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B140" s="6"/>
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.75">
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.75">
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.75">
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.75">
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E154" s="4"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E167" s="4"/>
     </row>
   </sheetData>
@@ -1480,6 +1490,109 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517319D0-5AB6-4AFD-938D-E70AFE79BFFC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45688</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45688</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{C26548C0-52FF-4C6A-BB18-F731F399AE9E}">
+      <formula1>"Access/Mezzanine,Backlog,Outsourced Graphics,Medium Priority,Transfer,Working Files"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
